--- a/S&M call center/S&M.xlsx
+++ b/S&M call center/S&M.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\excel_DA\S&amp;M call center\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A310EC37-621D-4109-959F-989CFA9B4C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4240619-D400-44F0-90F7-C2903C6AC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1DFC5D5-4786-4AD6-8D8E-03DE78F03318}"/>
   </bookViews>
@@ -87,27 +87,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>283028</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:colOff>478976</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>206825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>236763</xdr:rowOff>
+      <xdr:colOff>533405</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F473BDAE-F1B8-4B72-B464-79850A00B3A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6268962B-9F01-4110-AB5E-21C369151AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -124,14 +124,1023 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1012371" y="141514"/>
-          <a:ext cx="18288000" cy="9239249"/>
+          <a:off x="1208319" y="468082"/>
+          <a:ext cx="18288000" cy="9235440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>707570</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5791201" cy="630942"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15916DCA-F6CA-4C39-95F0-E569C0669DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2166256" y="631370"/>
+          <a:ext cx="5791201" cy="630942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Sales</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> &amp; Marketing Call Center</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426554</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>193545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>337291</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>49854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F746E6B2-20E4-410A-B0B9-957FFA5504F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11366697" y="1761088"/>
+          <a:ext cx="640080" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E41068-9493-4764-855A-34B3442EC6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16312131" y="1213197"/>
+          <a:ext cx="640080" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410972</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>193545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>321709</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>49854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA577E30-3A14-4621-8EDB-0FD1597D5F66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14268486" y="1761088"/>
+          <a:ext cx="640080" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251882</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382CD142-C5B1-43A7-AFA9-02008C37D853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9003996" y="2376772"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133514</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>193545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44251</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>49854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47476DAF-A963-41CD-8B9D-3C0D3767026A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6697600" y="1761088"/>
+          <a:ext cx="640080" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>237252</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>147989</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD763583-4903-4432-B917-630B178CD80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18470823" y="1213197"/>
+          <a:ext cx="640080" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>418464</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>193545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>329201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>49854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178D0E5C-F211-460D-BF8C-D11C111EC370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9170578" y="1761088"/>
+          <a:ext cx="640080" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA208DAC-6772-48E0-B1E8-F928163714FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5170715" y="1524000"/>
+          <a:ext cx="1621970" cy="468085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Calls</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DA545E-8401-4706-A540-05380EFAEF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467601" y="1524000"/>
+          <a:ext cx="1621970" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Successful</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Calls</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836B24A9-E8F4-40E1-A0A3-21BFF697A634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12246429" y="1480457"/>
+          <a:ext cx="1621970" cy="772886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Abandoned</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>  Calls</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E78335D-F908-4323-95EC-50C4F9D922C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9916886" y="1491343"/>
+          <a:ext cx="1621970" cy="468085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Calls</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8B7A59-8FEA-4F44-B2DF-3C03374D729A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15044058" y="936171"/>
+          <a:ext cx="1621970" cy="936172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Male</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Calls</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B687638A-1429-43BE-B03A-CCDCCCB0C42D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16981715" y="979715"/>
+          <a:ext cx="1621970" cy="783771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Female</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Calls</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Poppins SemiBold" panose="00000700000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -437,7 +1446,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.7"/>
